--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.030221-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.030221-1.xlsx_with_dialog_acts.xlsx
@@ -1190,12 +1190,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1232,12 +1232,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3005,12 +3005,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3384,12 +3384,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
